--- a/examples/kinetic_metabolic_model/schema_and_data.xlsx
+++ b/examples/kinetic_metabolic_model/schema_and_data.xlsx
@@ -16,7 +16,7 @@
     <sheet name="!!Regulations" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'!!_Schema'!$A$2:$G$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'!!_Schema'!$A$2:$G$61</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'!!_Table of contents'!$A$3:$C$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'!!Compartments'!$A$2:$B$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'!!Metabolites'!$A$2:$C$285</definedName>
@@ -49,10 +49,10 @@
     <t>'!!Regulations'!A1</t>
   </si>
   <si>
-    <t>!!!ObjTables objTablesVersion='1.0.1' date='2020-06-03 15:21:24'</t>
-  </si>
-  <si>
-    <t>!!ObjTables type='TableOfContents' tableFormat='row' description='Table of contents' date='2020-06-03 15:21:24' objTablesVersion='1.0.1'</t>
+    <t>!!!ObjTables objTablesVersion='1.0.9' date='2020-06-03 15:21:24' comment='Data obtained from Khodayari &amp; Maranas, Nature Communications, 2016, DOI: 10.1038/ncomms13806'</t>
+  </si>
+  <si>
+    <t>!!ObjTables type='TableOfContents' tableFormat='row' description='Table of contents' date='2020-06-03 15:21:24' objTablesVersion='1.0.9'</t>
   </si>
   <si>
     <t>!Table</t>
@@ -85,7 +85,7 @@
     <t>Regulations</t>
   </si>
   <si>
-    <t>!!ObjTables type='Schema' tableFormat='row' description='Table/model and column/attribute definitions' date='2020-06-03 15:21:24' objTablesVersion='1.0.1'</t>
+    <t>!!ObjTables type='Schema' tableFormat='row' description='Table/model and column/attribute definitions' date='2020-06-03 15:21:24' objTablesVersion='1.0.9'</t>
   </si>
   <si>
     <t>!Name</t>
@@ -451,7 +451,7 @@
     <t>Value</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' tableFormat='row' class='Compartment' name='Compartments' date='2020-06-03 15:21:24' objTablesVersion='1.0.1'</t>
+    <t>!!ObjTables type='Data' tableFormat='row' class='Compartment' name='Compartments' date='2020-06-03 15:21:24' objTablesVersion='1.0.9'</t>
   </si>
   <si>
     <t>!Id</t>
@@ -475,7 +475,7 @@
     <t>periplasm</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' tableFormat='row' class='Metabolite' name='Metabolites' date='2020-06-03 15:21:24' objTablesVersion='1.0.1'</t>
+    <t>!!ObjTables type='Data' tableFormat='row' class='Metabolite' name='Metabolites' date='2020-06-03 15:21:24' objTablesVersion='1.0.9'</t>
   </si>
   <si>
     <t>!Formula</t>
@@ -2914,7 +2914,7 @@
     <t>D-Xylulose 5-phosphate</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' tableFormat='row' class='Reaction' name='Reactions' date='2020-06-03 15:21:24' objTablesVersion='1.0.1'</t>
+    <t>!!ObjTables type='Data' tableFormat='row' class='Reaction' name='Reactions' date='2020-06-03 15:21:24' objTablesVersion='1.0.9'</t>
   </si>
   <si>
     <t>!Id (iAF1260 [Ref1])</t>
@@ -10247,7 +10247,7 @@
 7.0	2,4-diaminobutyrate	Escherichia coli		485898	2D-image
 15.0	glycine	Escherichia coli		485898	2D-image
 13.0	L-alanine	Escherichia coli		485898	2D-image
-110.0	L-asparagine	Escherichia coli		485898 	2D-image
+110.0	L-asparagine	Escherichia coli		485898	2D-image
 14.0	L-isoleucine	Escherichia coli		485898	2D-image
 5.5	L-leucine	Escherichia coli		485898	2D-image
 40.0	L-methionine	Escherichia coli		485898	2D-image
@@ -12540,7 +12540,7 @@
     <t>&lt;wc_utils.workbook.core.Formula object at 0x7f055c2166d0&gt;</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' tableFormat='row' class='Reference' name='References' date='2020-06-03 15:21:24' objTablesVersion='1.0.1'</t>
+    <t>!!ObjTables type='Data' tableFormat='row' class='Reference' name='References' date='2020-06-03 15:21:24' objTablesVersion='1.0.9'</t>
   </si>
   <si>
     <t>!Title</t>
@@ -12600,7 +12600,7 @@
     <t>Keseler IM, Mackie A, Peralta-Gil M, Santos-Zavaleta A, Gama-Castro S, Bonavides-Martínez C, Fulcher C, Huerta AM, Kothari A, Krummenacker M, Latendresse M, Muñiz-Rascado L, Ong Q, Paley S, Schröder I, Shearer AG, Subhraveti P, Travers M, Weerasinghe D, Weiss V, Collado-Vides J, Gunsalus RP, Paulsen I, Karp PD.</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' tableFormat='row' class='Regulation' name='Regulations' date='2020-06-03 15:21:24' objTablesVersion='1.0.1'</t>
+    <t>!!ObjTables type='Data' tableFormat='row' class='Regulation' name='Regulations' date='2020-06-03 15:21:24' objTablesVersion='1.0.9'</t>
   </si>
   <si>
     <t>!Reaction</t>
@@ -12685,7 +12685,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -13097,7 +13097,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -13202,46 +13202,36 @@
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" ht="15.01" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" ht="15.01" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>29</v>
@@ -13250,17 +13240,17 @@
         <v>35</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" ht="15.01" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>29</v>
@@ -13269,74 +13259,64 @@
         <v>35</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" ht="15.01" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="D10" s="3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" ht="15.01" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" ht="15.01" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>29</v>
@@ -13345,17 +13325,17 @@
         <v>39</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" ht="15.01" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>29</v>
@@ -13364,17 +13344,17 @@
         <v>39</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" ht="15.01" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>29</v>
@@ -13383,17 +13363,17 @@
         <v>39</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" ht="15.01" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>29</v>
@@ -13402,17 +13382,17 @@
         <v>39</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="15.01" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -13424,14 +13404,14 @@
         <v>33</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="15.01" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>29</v>
@@ -13440,17 +13420,17 @@
         <v>39</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="15.01" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>29</v>
@@ -13459,17 +13439,17 @@
         <v>39</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" ht="15.01" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>29</v>
@@ -13481,14 +13461,14 @@
         <v>57</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" ht="15.01" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>29</v>
@@ -13500,14 +13480,14 @@
         <v>57</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" ht="15.01" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>29</v>
@@ -13519,14 +13499,14 @@
         <v>57</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" ht="15.01" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>29</v>
@@ -13538,14 +13518,14 @@
         <v>57</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" ht="15.01" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>29</v>
@@ -13557,14 +13537,14 @@
         <v>57</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" ht="15.01" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>29</v>
@@ -13576,14 +13556,14 @@
         <v>57</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" ht="15.01" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>29</v>
@@ -13592,17 +13572,17 @@
         <v>39</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" ht="15.01" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>29</v>
@@ -13611,17 +13591,17 @@
         <v>39</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" ht="15.01" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>29</v>
@@ -13630,17 +13610,17 @@
         <v>39</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7" ht="15.01" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>29</v>
@@ -13649,17 +13629,17 @@
         <v>39</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7" ht="15.01" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>29</v>
@@ -13668,17 +13648,17 @@
         <v>39</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:7" ht="15.01" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>29</v>
@@ -13687,17 +13667,17 @@
         <v>39</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:7" ht="15.01" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>29</v>
@@ -13706,17 +13686,17 @@
         <v>39</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
     <row r="33" spans="1:7" ht="15.01" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>29</v>
@@ -13725,93 +13705,83 @@
         <v>39</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7" ht="15.01" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="D34" s="3" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>16</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="F34" s="3"/>
       <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7" ht="15.01" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A36" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>96</v>
-      </c>
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
     </row>
     <row r="37" spans="1:7" ht="15.01" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F37" s="3"/>
+      <c r="F37" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:7" ht="15.01" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>29</v>
@@ -13820,17 +13790,17 @@
         <v>91</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
     <row r="39" spans="1:7" ht="15.01" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>29</v>
@@ -13839,17 +13809,17 @@
         <v>91</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
     <row r="40" spans="1:7" ht="15.01" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>29</v>
@@ -13858,17 +13828,17 @@
         <v>91</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
     </row>
     <row r="41" spans="1:7" ht="15.01" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>29</v>
@@ -13880,14 +13850,14 @@
         <v>95</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
     </row>
     <row r="42" spans="1:7" ht="15.01" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>29</v>
@@ -13896,17 +13866,17 @@
         <v>91</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
     </row>
     <row r="43" spans="1:7" ht="15.01" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>29</v>
@@ -13918,223 +13888,203 @@
         <v>95</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
     </row>
     <row r="44" spans="1:7" ht="15.01" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C44" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="D44" s="3" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="F44" s="3"/>
       <c r="G44" s="3"/>
     </row>
     <row r="45" spans="1:7" ht="15.01" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
     </row>
     <row r="46" spans="1:7" ht="15.01" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
     </row>
     <row r="47" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A47" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>117</v>
-      </c>
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
     </row>
     <row r="48" spans="1:7" ht="15.01" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C48" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F48" s="3"/>
+      <c r="F48" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="G48" s="3"/>
     </row>
     <row r="49" spans="1:7" ht="15.01" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C49" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="D49" s="3" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>121</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="F49" s="3"/>
       <c r="G49" s="3"/>
     </row>
     <row r="50" spans="1:7" ht="15.01" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
     </row>
     <row r="51" spans="1:7" ht="15.01" customHeight="1">
       <c r="A51" s="3" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
     </row>
     <row r="52" spans="1:7" ht="15.01" customHeight="1">
       <c r="A52" s="3" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
     </row>
     <row r="53" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A53" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>131</v>
-      </c>
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
     </row>
     <row r="54" spans="1:7" ht="15.01" customHeight="1">
       <c r="A54" s="3" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C54" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E54" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="F54" s="3"/>
+      <c r="F54" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="G54" s="3"/>
     </row>
     <row r="55" spans="1:7" ht="15.01" customHeight="1">
       <c r="A55" s="3" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>29</v>
@@ -14143,17 +14093,17 @@
         <v>121</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>133</v>
+        <v>50</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
     </row>
     <row r="56" spans="1:7" ht="15.01" customHeight="1">
       <c r="A56" s="3" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>29</v>
@@ -14162,23 +14112,118 @@
         <v>121</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
     </row>
+    <row r="57" spans="1:7" ht="15.01" customHeight="1">
+      <c r="A57" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+    </row>
+    <row r="58" spans="1:7" ht="15.01" customHeight="1">
+      <c r="A58" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+    </row>
+    <row r="59" spans="1:7" ht="15.01" customHeight="1">
+      <c r="A59" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+    </row>
+    <row r="60" spans="1:7" ht="15.01" customHeight="1">
+      <c r="A60" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+    </row>
+    <row r="61" spans="1:7" ht="15.01" customHeight="1">
+      <c r="A61" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+    </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A2:G56"/>
+  <autoFilter ref="A2:G61"/>
   <hyperlinks>
     <hyperlink ref="A3" location="'!!Compartments'!A1" tooltip="Click to view compartments" display="'!!Compartments'!A1"/>
-    <hyperlink ref="A6" location="'!!Metabolites'!A1" tooltip="Click to view metabolites" display="'!!Metabolites'!A1"/>
-    <hyperlink ref="A10" location="'!!Reactions'!A1" tooltip="Click to view reactions" display="'!!Reactions'!A1"/>
-    <hyperlink ref="A34" location="'!!References'!A1" tooltip="Click to view references" display="'!!References'!A1"/>
-    <hyperlink ref="A44" location="'!!Regulations'!A1" tooltip="Click to view regulations" display="'!!Regulations'!A1"/>
+    <hyperlink ref="A7" location="'!!Metabolites'!A1" tooltip="Click to view metabolites" display="'!!Metabolites'!A1"/>
+    <hyperlink ref="A12" location="'!!Reactions'!A1" tooltip="Click to view reactions" display="'!!Reactions'!A1"/>
+    <hyperlink ref="A37" location="'!!References'!A1" tooltip="Click to view references" display="'!!References'!A1"/>
+    <hyperlink ref="A48" location="'!!Regulations'!A1" tooltip="Click to view regulations" display="'!!Regulations'!A1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -40400,10 +40445,10 @@
     </row>
     <row r="3" spans="1:4" ht="15.01" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>2357</v>
+        <v>2168</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>735</v>
+        <v>335</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>142</v>
@@ -40414,10 +40459,10 @@
     </row>
     <row r="4" spans="1:4" ht="15.01" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>2692</v>
+        <v>2887</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>674</v>
+        <v>858</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>142</v>
@@ -40428,10 +40473,10 @@
     </row>
     <row r="5" spans="1:4" ht="15.01" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>2248</v>
+        <v>2357</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>674</v>
+        <v>858</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>142</v>
@@ -40442,10 +40487,10 @@
     </row>
     <row r="6" spans="1:4" ht="15.01" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>2248</v>
+        <v>2357</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>858</v>
+        <v>674</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>142</v>
@@ -40456,10 +40501,10 @@
     </row>
     <row r="7" spans="1:4" ht="15.01" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>2366</v>
+        <v>1457</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>858</v>
+        <v>674</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>142</v>
@@ -40470,10 +40515,10 @@
     </row>
     <row r="8" spans="1:4" ht="15.01" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>2366</v>
+        <v>1457</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>930</v>
+        <v>705</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>142</v>
@@ -40484,10 +40529,10 @@
     </row>
     <row r="9" spans="1:4" ht="15.01" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>1457</v>
+        <v>2366</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>930</v>
+        <v>705</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>142</v>
@@ -40498,10 +40543,10 @@
     </row>
     <row r="10" spans="1:4" ht="15.01" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>1457</v>
+        <v>2366</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>708</v>
+        <v>462</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>142</v>
@@ -40512,10 +40557,10 @@
     </row>
     <row r="11" spans="1:4" ht="15.01" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>2755</v>
+        <v>2366</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>708</v>
+        <v>645</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>142</v>
@@ -40526,24 +40571,24 @@
     </row>
     <row r="12" spans="1:4" ht="15.01" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>2755</v>
+        <v>2366</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>385</v>
+        <v>506</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>3219</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.01" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>2725</v>
+        <v>2963</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>385</v>
+        <v>506</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>142</v>
@@ -40554,10 +40599,10 @@
     </row>
     <row r="14" spans="1:4" ht="15.01" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>2725</v>
+        <v>2963</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>503</v>
+        <v>614</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>142</v>
@@ -40568,10 +40613,10 @@
     </row>
     <row r="15" spans="1:4" ht="15.01" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>2473</v>
+        <v>2644</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>503</v>
+        <v>614</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>142</v>
@@ -40582,10 +40627,10 @@
     </row>
     <row r="16" spans="1:4" ht="15.01" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>2473</v>
+        <v>2644</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>735</v>
+        <v>778</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>142</v>
@@ -40596,10 +40641,10 @@
     </row>
     <row r="17" spans="1:4" ht="15.01" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>2667</v>
+        <v>1297</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>735</v>
+        <v>778</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>142</v>
@@ -40610,10 +40655,10 @@
     </row>
     <row r="18" spans="1:4" ht="15.01" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>2667</v>
+        <v>1297</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>732</v>
+        <v>450</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>142</v>
@@ -40624,10 +40669,10 @@
     </row>
     <row r="19" spans="1:4" ht="15.01" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>2473</v>
+        <v>1166</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>732</v>
+        <v>450</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>142</v>
@@ -40638,10 +40683,10 @@
     </row>
     <row r="20" spans="1:4" ht="15.01" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>2114</v>
+        <v>1166</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>732</v>
+        <v>503</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>142</v>
@@ -40652,27 +40697,27 @@
     </row>
     <row r="21" spans="1:4" ht="15.01" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>2114</v>
+        <v>1216</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>738</v>
+        <v>503</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>3220</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.01" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>2248</v>
+        <v>1216</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>738</v>
+        <v>385</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>3218</v>
@@ -40680,38 +40725,38 @@
     </row>
     <row r="23" spans="1:4" ht="15.01" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>2230</v>
+        <v>2568</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>738</v>
+        <v>385</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>3220</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.01" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>2230</v>
+        <v>2568</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>418</v>
+        <v>503</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>3220</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.01" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>2203</v>
+        <v>1069</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>418</v>
+        <v>385</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>142</v>
@@ -40722,52 +40767,52 @@
     </row>
     <row r="26" spans="1:4" ht="15.01" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>2203</v>
+        <v>1069</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>823</v>
+        <v>796</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>3218</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.01" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>2667</v>
+        <v>2230</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>823</v>
+        <v>796</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>3218</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.01" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>2860</v>
+        <v>2230</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>418</v>
+        <v>735</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>3218</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.01" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>2860</v>
+        <v>1035</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>847</v>
+        <v>735</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>142</v>
@@ -40778,38 +40823,38 @@
     </row>
     <row r="30" spans="1:4" ht="15.01" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>2892</v>
+        <v>2248</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>418</v>
+        <v>735</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>3220</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.01" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>2892</v>
+        <v>2248</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>784</v>
+        <v>708</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>3219</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.01" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>2869</v>
+        <v>1467</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>784</v>
+        <v>708</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>142</v>
@@ -40820,10 +40865,10 @@
     </row>
     <row r="33" spans="1:4" ht="15.01" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>2869</v>
+        <v>1467</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>310</v>
+        <v>829</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>142</v>
@@ -40834,10 +40879,10 @@
     </row>
     <row r="34" spans="1:4" ht="15.01" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>2869</v>
+        <v>2366</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>142</v>
@@ -40848,24 +40893,24 @@
     </row>
     <row r="35" spans="1:4" ht="15.01" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>2892</v>
+        <v>1467</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>835</v>
+        <v>459</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>3219</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.01" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>2855</v>
+        <v>1443</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>835</v>
+        <v>459</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>142</v>
@@ -40876,10 +40921,10 @@
     </row>
     <row r="37" spans="1:4" ht="15.01" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>2855</v>
+        <v>1443</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>697</v>
+        <v>444</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>142</v>
@@ -40890,10 +40935,10 @@
     </row>
     <row r="38" spans="1:4" ht="15.01" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>2153</v>
+        <v>1267</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>697</v>
+        <v>444</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>142</v>
@@ -40904,10 +40949,10 @@
     </row>
     <row r="39" spans="1:4" ht="15.01" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>2153</v>
+        <v>2222</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>858</v>
+        <v>444</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>142</v>
@@ -40918,35 +40963,35 @@
     </row>
     <row r="40" spans="1:4" ht="15.01" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>2248</v>
+        <v>2222</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>835</v>
+        <v>464</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>3218</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.01" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>3097</v>
+        <v>2230</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>835</v>
+        <v>464</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>3218</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.01" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>3097</v>
+        <v>2516</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>464</v>
@@ -40955,12 +41000,12 @@
         <v>142</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>3218</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.01" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>2248</v>
+        <v>2745</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>464</v>
@@ -40974,7 +41019,7 @@
     </row>
     <row r="44" spans="1:4" ht="15.01" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>2357</v>
+        <v>2905</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>464</v>
@@ -40983,99 +41028,99 @@
         <v>142</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>3219</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.01" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>2357</v>
+        <v>2905</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>930</v>
+        <v>881</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>3218</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.01" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>2357</v>
+        <v>2911</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>506</v>
+        <v>881</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>3218</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.01" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>2725</v>
+        <v>2911</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>506</v>
+        <v>464</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>3219</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15.01" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>2248</v>
+        <v>2892</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>506</v>
+        <v>464</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>3218</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.01" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>2261</v>
+        <v>2892</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>506</v>
+        <v>732</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>3218</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.01" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>2261</v>
+        <v>2230</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>503</v>
+        <v>732</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>3218</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.01" customHeight="1">
       <c r="A51" s="3" t="s">
-        <v>1420</v>
+        <v>2692</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>506</v>
+        <v>732</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>142</v>
@@ -41086,10 +41131,10 @@
     </row>
     <row r="52" spans="1:4" ht="15.01" customHeight="1">
       <c r="A52" s="3" t="s">
-        <v>1615</v>
+        <v>2692</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>506</v>
+        <v>858</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>142</v>
@@ -41100,10 +41145,10 @@
     </row>
     <row r="53" spans="1:4" ht="15.01" customHeight="1">
       <c r="A53" s="3" t="s">
-        <v>1615</v>
+        <v>2692</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>608</v>
+        <v>439</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>142</v>
@@ -41114,24 +41159,24 @@
     </row>
     <row r="54" spans="1:4" ht="15.01" customHeight="1">
       <c r="A54" s="3" t="s">
-        <v>2230</v>
+        <v>2963</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>608</v>
+        <v>439</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>3219</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15.01" customHeight="1">
       <c r="A55" s="3" t="s">
-        <v>2837</v>
+        <v>2248</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>608</v>
+        <v>439</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>142</v>
@@ -41142,10 +41187,10 @@
     </row>
     <row r="56" spans="1:4" ht="15.01" customHeight="1">
       <c r="A56" s="3" t="s">
-        <v>2248</v>
+        <v>2644</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>608</v>
+        <v>439</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>142</v>
@@ -41156,10 +41201,10 @@
     </row>
     <row r="57" spans="1:4" ht="15.01" customHeight="1">
       <c r="A57" s="3" t="s">
-        <v>1457</v>
+        <v>2977</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>608</v>
+        <v>439</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>142</v>
@@ -41170,10 +41215,10 @@
     </row>
     <row r="58" spans="1:4" ht="15.01" customHeight="1">
       <c r="A58" s="3" t="s">
-        <v>1615</v>
+        <v>2977</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>705</v>
+        <v>665</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>142</v>
@@ -41184,10 +41229,10 @@
     </row>
     <row r="59" spans="1:4" ht="15.01" customHeight="1">
       <c r="A59" s="3" t="s">
-        <v>1397</v>
+        <v>1511</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>705</v>
+        <v>665</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>142</v>
@@ -41198,10 +41243,10 @@
     </row>
     <row r="60" spans="1:4" ht="15.01" customHeight="1">
       <c r="A60" s="3" t="s">
-        <v>1397</v>
+        <v>1511</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>424</v>
+        <v>464</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>142</v>
@@ -41212,10 +41257,10 @@
     </row>
     <row r="61" spans="1:4" ht="15.01" customHeight="1">
       <c r="A61" s="3" t="s">
-        <v>2644</v>
+        <v>1511</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>705</v>
+        <v>444</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>142</v>
@@ -41226,10 +41271,10 @@
     </row>
     <row r="62" spans="1:4" ht="15.01" customHeight="1">
       <c r="A62" s="3" t="s">
-        <v>2644</v>
+        <v>2248</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>858</v>
+        <v>665</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>142</v>
@@ -41240,10 +41285,10 @@
     </row>
     <row r="63" spans="1:4" ht="15.01" customHeight="1">
       <c r="A63" s="3" t="s">
-        <v>2644</v>
+        <v>2348</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>956</v>
+        <v>665</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>142</v>
@@ -41254,10 +41299,10 @@
     </row>
     <row r="64" spans="1:4" ht="15.01" customHeight="1">
       <c r="A64" s="3" t="s">
-        <v>2366</v>
+        <v>2977</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>956</v>
+        <v>506</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>142</v>
@@ -41268,10 +41313,10 @@
     </row>
     <row r="65" spans="1:4" ht="15.01" customHeight="1">
       <c r="A65" s="3" t="s">
-        <v>2644</v>
+        <v>1574</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>688</v>
+        <v>439</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>142</v>
@@ -41282,10 +41327,10 @@
     </row>
     <row r="66" spans="1:4" ht="15.01" customHeight="1">
       <c r="A66" s="3" t="s">
-        <v>2366</v>
+        <v>1574</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>688</v>
+        <v>787</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>142</v>
@@ -41296,10 +41341,10 @@
     </row>
     <row r="67" spans="1:4" ht="15.01" customHeight="1">
       <c r="A67" s="3" t="s">
-        <v>2644</v>
+        <v>2779</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>796</v>
+        <v>787</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>142</v>
@@ -41310,10 +41355,10 @@
     </row>
     <row r="68" spans="1:4" ht="15.01" customHeight="1">
       <c r="A68" s="3" t="s">
-        <v>3061</v>
+        <v>2779</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>796</v>
+        <v>495</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>142</v>
@@ -41324,10 +41369,10 @@
     </row>
     <row r="69" spans="1:4" ht="15.01" customHeight="1">
       <c r="A69" s="3" t="s">
-        <v>2810</v>
+        <v>1542</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>796</v>
+        <v>495</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>142</v>
@@ -41338,10 +41383,10 @@
     </row>
     <row r="70" spans="1:4" ht="15.01" customHeight="1">
       <c r="A70" s="3" t="s">
-        <v>2810</v>
+        <v>1542</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>464</v>
+        <v>492</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>142</v>
@@ -41352,10 +41397,10 @@
     </row>
     <row r="71" spans="1:4" ht="15.01" customHeight="1">
       <c r="A71" s="3" t="s">
-        <v>2054</v>
+        <v>1542</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>796</v>
+        <v>950</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>142</v>
@@ -41366,10 +41411,10 @@
     </row>
     <row r="72" spans="1:4" ht="15.01" customHeight="1">
       <c r="A72" s="3" t="s">
-        <v>2054</v>
+        <v>2442</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>579</v>
+        <v>950</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>142</v>
@@ -41380,38 +41425,38 @@
     </row>
     <row r="73" spans="1:4" ht="15.01" customHeight="1">
       <c r="A73" s="3" t="s">
-        <v>2054</v>
+        <v>2442</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>444</v>
+        <v>700</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>3220</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15.01" customHeight="1">
       <c r="A74" s="3" t="s">
-        <v>2928</v>
+        <v>1457</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>444</v>
+        <v>700</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>3220</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15.01" customHeight="1">
       <c r="A75" s="3" t="s">
-        <v>1130</v>
+        <v>2644</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>444</v>
+        <v>700</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>142</v>
@@ -41422,24 +41467,24 @@
     </row>
     <row r="76" spans="1:4" ht="15.01" customHeight="1">
       <c r="A76" s="3" t="s">
-        <v>1130</v>
+        <v>2769</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>729</v>
+        <v>950</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>3219</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="15.01" customHeight="1">
       <c r="A77" s="3" t="s">
-        <v>3097</v>
+        <v>2769</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>729</v>
+        <v>367</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>142</v>
@@ -41450,52 +41495,52 @@
     </row>
     <row r="78" spans="1:4" ht="15.01" customHeight="1">
       <c r="A78" s="3" t="s">
-        <v>2230</v>
+        <v>2769</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>729</v>
+        <v>444</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>3220</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="15.01" customHeight="1">
       <c r="A79" s="3" t="s">
-        <v>2064</v>
+        <v>2769</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>444</v>
+        <v>732</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>3220</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="15.01" customHeight="1">
       <c r="A80" s="3" t="s">
-        <v>2064</v>
+        <v>2769</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>784</v>
+        <v>495</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>3220</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15.01" customHeight="1">
       <c r="A81" s="3" t="s">
-        <v>2064</v>
+        <v>1542</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>796</v>
+        <v>400</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>142</v>
@@ -41506,24 +41551,24 @@
     </row>
     <row r="82" spans="1:4" ht="15.01" customHeight="1">
       <c r="A82" s="3" t="s">
-        <v>2064</v>
+        <v>2407</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>3220</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="15.01" customHeight="1">
       <c r="A83" s="3" t="s">
-        <v>2193</v>
+        <v>2407</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>142</v>
@@ -41534,10 +41579,10 @@
     </row>
     <row r="84" spans="1:4" ht="15.01" customHeight="1">
       <c r="A84" s="3" t="s">
-        <v>2193</v>
+        <v>1111</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>614</v>
+        <v>433</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>142</v>
@@ -41548,10 +41593,10 @@
     </row>
     <row r="85" spans="1:4" ht="15.01" customHeight="1">
       <c r="A85" s="3" t="s">
-        <v>2692</v>
+        <v>1111</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>614</v>
+        <v>878</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>142</v>
@@ -41562,10 +41607,10 @@
     </row>
     <row r="86" spans="1:4" ht="15.01" customHeight="1">
       <c r="A86" s="3" t="s">
-        <v>2692</v>
+        <v>1287</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>930</v>
+        <v>878</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>142</v>
@@ -41576,10 +41621,10 @@
     </row>
     <row r="87" spans="1:4" ht="15.01" customHeight="1">
       <c r="A87" s="3" t="s">
-        <v>2692</v>
+        <v>1287</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>439</v>
+        <v>572</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>142</v>
@@ -41590,10 +41635,10 @@
     </row>
     <row r="88" spans="1:4" ht="15.01" customHeight="1">
       <c r="A88" s="3" t="s">
-        <v>1574</v>
+        <v>2755</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>439</v>
+        <v>572</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>142</v>
@@ -41604,10 +41649,10 @@
     </row>
     <row r="89" spans="1:4" ht="15.01" customHeight="1">
       <c r="A89" s="3" t="s">
-        <v>1574</v>
+        <v>2755</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>941</v>
+        <v>495</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>142</v>
@@ -41618,24 +41663,24 @@
     </row>
     <row r="90" spans="1:4" ht="15.01" customHeight="1">
       <c r="A90" s="3" t="s">
-        <v>2193</v>
+        <v>2755</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>941</v>
+        <v>560</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>3218</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="15.01" customHeight="1">
       <c r="A91" s="3" t="s">
-        <v>1383</v>
+        <v>2054</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>941</v>
+        <v>560</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>142</v>
@@ -41646,24 +41691,24 @@
     </row>
     <row r="92" spans="1:4" ht="15.01" customHeight="1">
       <c r="A92" s="3" t="s">
-        <v>1375</v>
+        <v>2054</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>941</v>
+        <v>418</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>3218</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="15.01" customHeight="1">
       <c r="A93" s="3" t="s">
-        <v>1574</v>
+        <v>2248</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>717</v>
+        <v>418</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>142</v>
@@ -41674,10 +41719,10 @@
     </row>
     <row r="94" spans="1:4" ht="15.01" customHeight="1">
       <c r="A94" s="3" t="s">
-        <v>2366</v>
+        <v>3097</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>717</v>
+        <v>418</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>142</v>
@@ -41688,10 +41733,10 @@
     </row>
     <row r="95" spans="1:4" ht="15.01" customHeight="1">
       <c r="A95" s="3" t="s">
-        <v>2376</v>
+        <v>3097</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>717</v>
+        <v>729</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>142</v>
@@ -41702,38 +41747,38 @@
     </row>
     <row r="96" spans="1:4" ht="15.01" customHeight="1">
       <c r="A96" s="3" t="s">
-        <v>2248</v>
+        <v>2230</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>717</v>
+        <v>729</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>3218</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="15.01" customHeight="1">
       <c r="A97" s="3" t="s">
-        <v>1574</v>
+        <v>1130</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>787</v>
+        <v>729</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>3218</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="15.01" customHeight="1">
       <c r="A98" s="3" t="s">
-        <v>1542</v>
+        <v>1130</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>787</v>
+        <v>444</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>142</v>
@@ -41744,10 +41789,10 @@
     </row>
     <row r="99" spans="1:4" ht="15.01" customHeight="1">
       <c r="A99" s="3" t="s">
-        <v>1542</v>
+        <v>3097</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>400</v>
+        <v>464</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>142</v>
@@ -41758,10 +41803,10 @@
     </row>
     <row r="100" spans="1:4" ht="15.01" customHeight="1">
       <c r="A100" s="3" t="s">
-        <v>2248</v>
+        <v>3097</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>400</v>
+        <v>835</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>142</v>
@@ -41772,10 +41817,10 @@
     </row>
     <row r="101" spans="1:4" ht="15.01" customHeight="1">
       <c r="A101" s="3" t="s">
-        <v>2779</v>
+        <v>2248</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>400</v>
+        <v>835</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>142</v>
@@ -41786,10 +41831,10 @@
     </row>
     <row r="102" spans="1:4" ht="15.01" customHeight="1">
       <c r="A102" s="3" t="s">
-        <v>2779</v>
+        <v>2855</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>495</v>
+        <v>835</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>142</v>
@@ -41800,10 +41845,10 @@
     </row>
     <row r="103" spans="1:4" ht="15.01" customHeight="1">
       <c r="A103" s="3" t="s">
-        <v>2769</v>
+        <v>2855</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>495</v>
+        <v>697</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>142</v>
@@ -41814,10 +41859,10 @@
     </row>
     <row r="104" spans="1:4" ht="15.01" customHeight="1">
       <c r="A104" s="3" t="s">
-        <v>2769</v>
+        <v>2153</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>950</v>
+        <v>697</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>142</v>
@@ -41828,38 +41873,38 @@
     </row>
     <row r="105" spans="1:4" ht="15.01" customHeight="1">
       <c r="A105" s="3" t="s">
-        <v>1542</v>
+        <v>2153</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>950</v>
+        <v>858</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>3218</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="15.01" customHeight="1">
       <c r="A106" s="3" t="s">
-        <v>2442</v>
+        <v>2892</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>950</v>
+        <v>835</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>3218</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="15.01" customHeight="1">
       <c r="A107" s="3" t="s">
-        <v>2442</v>
+        <v>2869</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>700</v>
+        <v>835</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>142</v>
@@ -41870,10 +41915,10 @@
     </row>
     <row r="108" spans="1:4" ht="15.01" customHeight="1">
       <c r="A108" s="3" t="s">
-        <v>2644</v>
+        <v>2869</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>700</v>
+        <v>310</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>142</v>
@@ -41884,10 +41929,10 @@
     </row>
     <row r="109" spans="1:4" ht="15.01" customHeight="1">
       <c r="A109" s="3" t="s">
-        <v>1457</v>
+        <v>2869</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>700</v>
+        <v>784</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>142</v>
@@ -41898,24 +41943,24 @@
     </row>
     <row r="110" spans="1:4" ht="15.01" customHeight="1">
       <c r="A110" s="3" t="s">
-        <v>2769</v>
+        <v>2054</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>732</v>
+        <v>784</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>3218</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="15.01" customHeight="1">
       <c r="A111" s="3" t="s">
-        <v>2769</v>
+        <v>2701</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>444</v>
+        <v>784</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>142</v>
@@ -41926,58 +41971,58 @@
     </row>
     <row r="112" spans="1:4" ht="15.01" customHeight="1">
       <c r="A112" s="3" t="s">
-        <v>2769</v>
+        <v>2701</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>367</v>
+        <v>332</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>3218</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="15.01" customHeight="1">
       <c r="A113" s="3" t="s">
-        <v>2045</v>
+        <v>1791</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>495</v>
+        <v>332</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>3219</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="15.01" customHeight="1">
       <c r="A114" s="3" t="s">
-        <v>2045</v>
+        <v>1791</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>784</v>
+        <v>577</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>3219</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="15.01" customHeight="1">
       <c r="A115" s="3" t="s">
-        <v>2045</v>
+        <v>2764</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>539</v>
+        <v>577</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>3220</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="15.01" customHeight="1">
@@ -41985,7 +42030,7 @@
         <v>2764</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>539</v>
+        <v>464</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>142</v>
@@ -41999,7 +42044,7 @@
         <v>2764</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>142</v>
@@ -42010,10 +42055,10 @@
     </row>
     <row r="118" spans="1:4" ht="15.01" customHeight="1">
       <c r="A118" s="3" t="s">
-        <v>2178</v>
+        <v>2764</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>560</v>
+        <v>784</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>142</v>
@@ -42024,10 +42069,10 @@
     </row>
     <row r="119" spans="1:4" ht="15.01" customHeight="1">
       <c r="A119" s="3" t="s">
-        <v>2178</v>
+        <v>2764</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>784</v>
+        <v>732</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>142</v>
@@ -42038,10 +42083,10 @@
     </row>
     <row r="120" spans="1:4" ht="15.01" customHeight="1">
       <c r="A120" s="3" t="s">
-        <v>2178</v>
+        <v>2764</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>804</v>
+        <v>560</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>142</v>
@@ -42052,38 +42097,38 @@
     </row>
     <row r="121" spans="1:4" ht="15.01" customHeight="1">
       <c r="A121" s="3" t="s">
-        <v>2230</v>
+        <v>2764</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>804</v>
+        <v>539</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>3219</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="15.01" customHeight="1">
       <c r="A122" s="3" t="s">
-        <v>2068</v>
+        <v>2045</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>804</v>
+        <v>539</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>3219</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="15.01" customHeight="1">
       <c r="A123" s="3" t="s">
-        <v>2068</v>
+        <v>2045</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>464</v>
+        <v>784</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>142</v>
@@ -42094,38 +42139,38 @@
     </row>
     <row r="124" spans="1:4" ht="15.01" customHeight="1">
       <c r="A124" s="3" t="s">
-        <v>2068</v>
+        <v>2045</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>746</v>
+        <v>495</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>3218</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="15.01" customHeight="1">
       <c r="A125" s="3" t="s">
-        <v>2248</v>
+        <v>2397</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>746</v>
+        <v>784</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>3218</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="15.01" customHeight="1">
       <c r="A126" s="3" t="s">
-        <v>2589</v>
+        <v>2397</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>746</v>
+        <v>611</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>142</v>
@@ -42136,10 +42181,10 @@
     </row>
     <row r="127" spans="1:4" ht="15.01" customHeight="1">
       <c r="A127" s="3" t="s">
-        <v>2589</v>
+        <v>2397</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>878</v>
+        <v>746</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>142</v>
@@ -42150,10 +42195,10 @@
     </row>
     <row r="128" spans="1:4" ht="15.01" customHeight="1">
       <c r="A128" s="3" t="s">
-        <v>2248</v>
+        <v>2788</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>878</v>
+        <v>746</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>142</v>
@@ -42164,10 +42209,10 @@
     </row>
     <row r="129" spans="1:4" ht="15.01" customHeight="1">
       <c r="A129" s="3" t="s">
-        <v>2755</v>
+        <v>2788</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>878</v>
+        <v>418</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>142</v>
@@ -42178,10 +42223,10 @@
     </row>
     <row r="130" spans="1:4" ht="15.01" customHeight="1">
       <c r="A130" s="3" t="s">
-        <v>1457</v>
+        <v>2788</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>878</v>
+        <v>421</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>142</v>
@@ -42192,10 +42237,10 @@
     </row>
     <row r="131" spans="1:4" ht="15.01" customHeight="1">
       <c r="A131" s="3" t="s">
-        <v>2407</v>
+        <v>2788</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>878</v>
+        <v>464</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>142</v>
@@ -42206,7 +42251,7 @@
     </row>
     <row r="132" spans="1:4" ht="15.01" customHeight="1">
       <c r="A132" s="3" t="s">
-        <v>2407</v>
+        <v>2788</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>784</v>
@@ -42220,24 +42265,24 @@
     </row>
     <row r="133" spans="1:4" ht="15.01" customHeight="1">
       <c r="A133" s="3" t="s">
-        <v>2407</v>
+        <v>2788</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>686</v>
+        <v>708</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>3220</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="15.01" customHeight="1">
       <c r="A134" s="3" t="s">
-        <v>2407</v>
+        <v>2788</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>305</v>
+        <v>444</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>142</v>
@@ -42248,38 +42293,38 @@
     </row>
     <row r="135" spans="1:4" ht="15.01" customHeight="1">
       <c r="A135" s="3" t="s">
-        <v>2709</v>
+        <v>2788</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>305</v>
+        <v>433</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>3219</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="15.01" customHeight="1">
       <c r="A136" s="3" t="s">
-        <v>2709</v>
+        <v>2589</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>464</v>
+        <v>746</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>3219</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="15.01" customHeight="1">
       <c r="A137" s="3" t="s">
-        <v>2407</v>
+        <v>2589</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>400</v>
+        <v>464</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>142</v>
@@ -42290,10 +42335,10 @@
     </row>
     <row r="138" spans="1:4" ht="15.01" customHeight="1">
       <c r="A138" s="3" t="s">
-        <v>2407</v>
+        <v>2589</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>433</v>
+        <v>385</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>142</v>
@@ -42304,10 +42349,10 @@
     </row>
     <row r="139" spans="1:4" ht="15.01" customHeight="1">
       <c r="A139" s="3" t="s">
-        <v>2954</v>
+        <v>2589</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>433</v>
+        <v>503</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>142</v>
@@ -42318,24 +42363,24 @@
     </row>
     <row r="140" spans="1:4" ht="15.01" customHeight="1">
       <c r="A140" s="3" t="s">
-        <v>3052</v>
+        <v>2589</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>433</v>
+        <v>459</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>3218</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="15.01" customHeight="1">
       <c r="A141" s="3" t="s">
-        <v>3052</v>
+        <v>2589</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>464</v>
+        <v>878</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>142</v>
@@ -42346,10 +42391,10 @@
     </row>
     <row r="142" spans="1:4" ht="15.01" customHeight="1">
       <c r="A142" s="3" t="s">
-        <v>3052</v>
+        <v>2248</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>418</v>
+        <v>746</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>142</v>
@@ -42360,10 +42405,10 @@
     </row>
     <row r="143" spans="1:4" ht="15.01" customHeight="1">
       <c r="A143" s="3" t="s">
-        <v>3052</v>
+        <v>2068</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>878</v>
+        <v>746</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>142</v>
@@ -42374,52 +42419,52 @@
     </row>
     <row r="144" spans="1:4" ht="15.01" customHeight="1">
       <c r="A144" s="3" t="s">
-        <v>3052</v>
+        <v>2068</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>732</v>
+        <v>464</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>3218</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="15.01" customHeight="1">
       <c r="A145" s="3" t="s">
-        <v>2788</v>
+        <v>2068</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>433</v>
+        <v>804</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>3218</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="15.01" customHeight="1">
       <c r="A146" s="3" t="s">
-        <v>2788</v>
+        <v>2230</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>444</v>
+        <v>804</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>3218</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="15.01" customHeight="1">
       <c r="A147" s="3" t="s">
-        <v>2788</v>
+        <v>2178</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>708</v>
+        <v>804</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>142</v>
@@ -42430,10 +42475,10 @@
     </row>
     <row r="148" spans="1:4" ht="15.01" customHeight="1">
       <c r="A148" s="3" t="s">
-        <v>2788</v>
+        <v>2178</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>784</v>
+        <v>444</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>142</v>
@@ -42444,10 +42489,10 @@
     </row>
     <row r="149" spans="1:4" ht="15.01" customHeight="1">
       <c r="A149" s="3" t="s">
-        <v>2788</v>
+        <v>2178</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>746</v>
+        <v>418</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>142</v>
@@ -42458,10 +42503,10 @@
     </row>
     <row r="150" spans="1:4" ht="15.01" customHeight="1">
       <c r="A150" s="3" t="s">
-        <v>2788</v>
+        <v>2178</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>464</v>
+        <v>784</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>142</v>
@@ -42472,10 +42517,10 @@
     </row>
     <row r="151" spans="1:4" ht="15.01" customHeight="1">
       <c r="A151" s="3" t="s">
-        <v>2788</v>
+        <v>2178</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>421</v>
+        <v>560</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>142</v>
@@ -42486,10 +42531,10 @@
     </row>
     <row r="152" spans="1:4" ht="15.01" customHeight="1">
       <c r="A152" s="3" t="s">
-        <v>2788</v>
+        <v>2407</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>418</v>
+        <v>784</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>142</v>
@@ -42500,38 +42545,38 @@
     </row>
     <row r="153" spans="1:4" ht="15.01" customHeight="1">
       <c r="A153" s="3" t="s">
-        <v>1111</v>
+        <v>2064</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>433</v>
+        <v>784</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>3218</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="15.01" customHeight="1">
       <c r="A154" s="3" t="s">
-        <v>1111</v>
+        <v>2064</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>878</v>
+        <v>418</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>3218</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="15.01" customHeight="1">
       <c r="A155" s="3" t="s">
-        <v>1467</v>
+        <v>2064</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>878</v>
+        <v>796</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>142</v>
@@ -42542,38 +42587,38 @@
     </row>
     <row r="156" spans="1:4" ht="15.01" customHeight="1">
       <c r="A156" s="3" t="s">
-        <v>1467</v>
+        <v>2064</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>3218</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="15.01" customHeight="1">
       <c r="A157" s="3" t="s">
-        <v>2755</v>
+        <v>2892</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>459</v>
+        <v>784</v>
       </c>
       <c r="C157" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>3218</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="15.01" customHeight="1">
       <c r="A158" s="3" t="s">
-        <v>2248</v>
+        <v>2239</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>459</v>
+        <v>418</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>142</v>
@@ -42584,10 +42629,10 @@
     </row>
     <row r="159" spans="1:4" ht="15.01" customHeight="1">
       <c r="A159" s="3" t="s">
-        <v>1427</v>
+        <v>2239</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>142</v>
@@ -42598,10 +42643,10 @@
     </row>
     <row r="160" spans="1:4" ht="15.01" customHeight="1">
       <c r="A160" s="3" t="s">
-        <v>1427</v>
+        <v>3052</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>142</v>
@@ -42612,10 +42657,10 @@
     </row>
     <row r="161" spans="1:4" ht="15.01" customHeight="1">
       <c r="A161" s="3" t="s">
-        <v>2644</v>
+        <v>3052</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>456</v>
+        <v>732</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>142</v>
@@ -42626,10 +42671,10 @@
     </row>
     <row r="162" spans="1:4" ht="15.01" customHeight="1">
       <c r="A162" s="3" t="s">
-        <v>2248</v>
+        <v>3052</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>456</v>
+        <v>878</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>142</v>
@@ -42640,10 +42685,10 @@
     </row>
     <row r="163" spans="1:4" ht="15.01" customHeight="1">
       <c r="A163" s="3" t="s">
-        <v>1436</v>
+        <v>3052</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>142</v>
@@ -42654,10 +42699,10 @@
     </row>
     <row r="164" spans="1:4" ht="15.01" customHeight="1">
       <c r="A164" s="3" t="s">
-        <v>1436</v>
+        <v>3052</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>599</v>
+        <v>433</v>
       </c>
       <c r="C164" s="3" t="s">
         <v>142</v>
@@ -42668,24 +42713,24 @@
     </row>
     <row r="165" spans="1:4" ht="15.01" customHeight="1">
       <c r="A165" s="3" t="s">
-        <v>2589</v>
+        <v>2892</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>459</v>
+        <v>418</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>3219</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="15.01" customHeight="1">
       <c r="A166" s="3" t="s">
-        <v>1443</v>
+        <v>2860</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>459</v>
+        <v>418</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>142</v>
@@ -42696,10 +42741,10 @@
     </row>
     <row r="167" spans="1:4" ht="15.01" customHeight="1">
       <c r="A167" s="3" t="s">
-        <v>1443</v>
+        <v>2860</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>741</v>
+        <v>847</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>142</v>
@@ -42710,24 +42755,24 @@
     </row>
     <row r="168" spans="1:4" ht="15.01" customHeight="1">
       <c r="A168" s="3" t="s">
-        <v>2611</v>
+        <v>2203</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>741</v>
+        <v>418</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>3219</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="15.01" customHeight="1">
       <c r="A169" s="3" t="s">
-        <v>1443</v>
+        <v>2203</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>444</v>
+        <v>823</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>142</v>
@@ -42738,10 +42783,10 @@
     </row>
     <row r="170" spans="1:4" ht="15.01" customHeight="1">
       <c r="A170" s="3" t="s">
-        <v>1467</v>
+        <v>2667</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>708</v>
+        <v>823</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>142</v>
@@ -42752,10 +42797,10 @@
     </row>
     <row r="171" spans="1:4" ht="15.01" customHeight="1">
       <c r="A171" s="3" t="s">
-        <v>1467</v>
+        <v>2667</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>829</v>
+        <v>732</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>142</v>
@@ -42766,10 +42811,10 @@
     </row>
     <row r="172" spans="1:4" ht="15.01" customHeight="1">
       <c r="A172" s="3" t="s">
-        <v>2366</v>
+        <v>2667</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>829</v>
+        <v>735</v>
       </c>
       <c r="C172" s="3" t="s">
         <v>142</v>
@@ -42780,38 +42825,38 @@
     </row>
     <row r="173" spans="1:4" ht="15.01" customHeight="1">
       <c r="A173" s="3" t="s">
-        <v>1668</v>
+        <v>2230</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>878</v>
+        <v>418</v>
       </c>
       <c r="C173" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>3218</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="15.01" customHeight="1">
       <c r="A174" s="3" t="s">
-        <v>1287</v>
+        <v>2054</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>878</v>
+        <v>444</v>
       </c>
       <c r="C174" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>3218</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="15.01" customHeight="1">
       <c r="A175" s="3" t="s">
-        <v>1287</v>
+        <v>2054</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="C175" s="3" t="s">
         <v>142</v>
@@ -42822,10 +42867,10 @@
     </row>
     <row r="176" spans="1:4" ht="15.01" customHeight="1">
       <c r="A176" s="3" t="s">
-        <v>2755</v>
+        <v>2054</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>572</v>
+        <v>796</v>
       </c>
       <c r="C176" s="3" t="s">
         <v>142</v>
@@ -42836,24 +42881,24 @@
     </row>
     <row r="177" spans="1:4" ht="15.01" customHeight="1">
       <c r="A177" s="3" t="s">
-        <v>2589</v>
+        <v>2290</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>503</v>
+        <v>560</v>
       </c>
       <c r="C177" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>3218</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="15.01" customHeight="1">
       <c r="A178" s="3" t="s">
-        <v>2589</v>
+        <v>2290</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>385</v>
+        <v>735</v>
       </c>
       <c r="C178" s="3" t="s">
         <v>142</v>
@@ -42864,7 +42909,7 @@
     </row>
     <row r="179" spans="1:4" ht="15.01" customHeight="1">
       <c r="A179" s="3" t="s">
-        <v>2589</v>
+        <v>2290</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>464</v>
@@ -42878,10 +42923,10 @@
     </row>
     <row r="180" spans="1:4" ht="15.01" customHeight="1">
       <c r="A180" s="3" t="s">
-        <v>2397</v>
+        <v>2290</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>746</v>
+        <v>503</v>
       </c>
       <c r="C180" s="3" t="s">
         <v>142</v>
@@ -42892,38 +42937,38 @@
     </row>
     <row r="181" spans="1:4" ht="15.01" customHeight="1">
       <c r="A181" s="3" t="s">
-        <v>2397</v>
+        <v>2290</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>611</v>
+        <v>850</v>
       </c>
       <c r="C181" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>3218</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="15.01" customHeight="1">
       <c r="A182" s="3" t="s">
-        <v>2397</v>
+        <v>2755</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>784</v>
+        <v>459</v>
       </c>
       <c r="C182" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>3220</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="15.01" customHeight="1">
       <c r="A183" s="3" t="s">
-        <v>2178</v>
+        <v>2755</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>418</v>
+        <v>878</v>
       </c>
       <c r="C183" s="3" t="s">
         <v>142</v>
@@ -42934,52 +42979,52 @@
     </row>
     <row r="184" spans="1:4" ht="15.01" customHeight="1">
       <c r="A184" s="3" t="s">
-        <v>2178</v>
+        <v>2755</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>444</v>
+        <v>385</v>
       </c>
       <c r="C184" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>3218</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="15.01" customHeight="1">
       <c r="A185" s="3" t="s">
-        <v>2290</v>
+        <v>2755</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>560</v>
+        <v>708</v>
       </c>
       <c r="C185" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>3220</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="15.01" customHeight="1">
       <c r="A186" s="3" t="s">
-        <v>2290</v>
+        <v>1668</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>850</v>
+        <v>878</v>
       </c>
       <c r="C186" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>3220</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="15.01" customHeight="1">
       <c r="A187" s="3" t="s">
-        <v>2290</v>
+        <v>1467</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>503</v>
+        <v>878</v>
       </c>
       <c r="C187" s="3" t="s">
         <v>142</v>
@@ -42990,10 +43035,10 @@
     </row>
     <row r="188" spans="1:4" ht="15.01" customHeight="1">
       <c r="A188" s="3" t="s">
-        <v>2290</v>
+        <v>2407</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>464</v>
+        <v>878</v>
       </c>
       <c r="C188" s="3" t="s">
         <v>142</v>
@@ -43004,10 +43049,10 @@
     </row>
     <row r="189" spans="1:4" ht="15.01" customHeight="1">
       <c r="A189" s="3" t="s">
-        <v>2290</v>
+        <v>1457</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>735</v>
+        <v>878</v>
       </c>
       <c r="C189" s="3" t="s">
         <v>142</v>
@@ -43018,10 +43063,10 @@
     </row>
     <row r="190" spans="1:4" ht="15.01" customHeight="1">
       <c r="A190" s="3" t="s">
-        <v>2054</v>
+        <v>2248</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>560</v>
+        <v>878</v>
       </c>
       <c r="C190" s="3" t="s">
         <v>142</v>
@@ -43032,24 +43077,24 @@
     </row>
     <row r="191" spans="1:4" ht="15.01" customHeight="1">
       <c r="A191" s="3" t="s">
-        <v>2755</v>
+        <v>2954</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>560</v>
+        <v>433</v>
       </c>
       <c r="C191" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>3219</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="15.01" customHeight="1">
       <c r="A192" s="3" t="s">
-        <v>2764</v>
+        <v>2407</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>732</v>
+        <v>305</v>
       </c>
       <c r="C192" s="3" t="s">
         <v>142</v>
@@ -43060,52 +43105,52 @@
     </row>
     <row r="193" spans="1:4" ht="15.01" customHeight="1">
       <c r="A193" s="3" t="s">
-        <v>2764</v>
+        <v>2709</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>784</v>
+        <v>305</v>
       </c>
       <c r="C193" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>3218</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="15.01" customHeight="1">
       <c r="A194" s="3" t="s">
-        <v>2764</v>
+        <v>2709</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>577</v>
+        <v>464</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>3218</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="15.01" customHeight="1">
       <c r="A195" s="3" t="s">
-        <v>1791</v>
+        <v>2407</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>577</v>
+        <v>686</v>
       </c>
       <c r="C195" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>3218</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="15.01" customHeight="1">
       <c r="A196" s="3" t="s">
-        <v>1791</v>
+        <v>2779</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>332</v>
+        <v>400</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>142</v>
@@ -43116,24 +43161,24 @@
     </row>
     <row r="197" spans="1:4" ht="15.01" customHeight="1">
       <c r="A197" s="3" t="s">
-        <v>2701</v>
+        <v>2248</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>332</v>
+        <v>400</v>
       </c>
       <c r="C197" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>3220</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="15.01" customHeight="1">
       <c r="A198" s="3" t="s">
-        <v>2701</v>
+        <v>1542</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>142</v>
@@ -43144,10 +43189,10 @@
     </row>
     <row r="199" spans="1:4" ht="15.01" customHeight="1">
       <c r="A199" s="3" t="s">
-        <v>2764</v>
+        <v>2077</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>551</v>
+        <v>495</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>142</v>
@@ -43158,10 +43203,10 @@
     </row>
     <row r="200" spans="1:4" ht="15.01" customHeight="1">
       <c r="A200" s="3" t="s">
-        <v>2764</v>
+        <v>1574</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>464</v>
+        <v>717</v>
       </c>
       <c r="C200" s="3" t="s">
         <v>142</v>
@@ -43172,10 +43217,10 @@
     </row>
     <row r="201" spans="1:4" ht="15.01" customHeight="1">
       <c r="A201" s="3" t="s">
-        <v>2755</v>
+        <v>2248</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>495</v>
+        <v>717</v>
       </c>
       <c r="C201" s="3" t="s">
         <v>142</v>
@@ -43186,10 +43231,10 @@
     </row>
     <row r="202" spans="1:4" ht="15.01" customHeight="1">
       <c r="A202" s="3" t="s">
-        <v>2077</v>
+        <v>2376</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>495</v>
+        <v>717</v>
       </c>
       <c r="C202" s="3" t="s">
         <v>142</v>
@@ -43200,10 +43245,10 @@
     </row>
     <row r="203" spans="1:4" ht="15.01" customHeight="1">
       <c r="A203" s="3" t="s">
-        <v>1542</v>
+        <v>2366</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>495</v>
+        <v>717</v>
       </c>
       <c r="C203" s="3" t="s">
         <v>142</v>
@@ -43214,10 +43259,10 @@
     </row>
     <row r="204" spans="1:4" ht="15.01" customHeight="1">
       <c r="A204" s="3" t="s">
-        <v>2779</v>
+        <v>1574</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>787</v>
+        <v>941</v>
       </c>
       <c r="C204" s="3" t="s">
         <v>142</v>
@@ -43228,10 +43273,10 @@
     </row>
     <row r="205" spans="1:4" ht="15.01" customHeight="1">
       <c r="A205" s="3" t="s">
-        <v>1542</v>
+        <v>1375</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>492</v>
+        <v>941</v>
       </c>
       <c r="C205" s="3" t="s">
         <v>142</v>
@@ -43242,10 +43287,10 @@
     </row>
     <row r="206" spans="1:4" ht="15.01" customHeight="1">
       <c r="A206" s="3" t="s">
-        <v>2977</v>
+        <v>1383</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>439</v>
+        <v>941</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>142</v>
@@ -43256,10 +43301,10 @@
     </row>
     <row r="207" spans="1:4" ht="15.01" customHeight="1">
       <c r="A207" s="3" t="s">
-        <v>2977</v>
+        <v>2193</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>506</v>
+        <v>941</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>142</v>
@@ -43270,10 +43315,10 @@
     </row>
     <row r="208" spans="1:4" ht="15.01" customHeight="1">
       <c r="A208" s="3" t="s">
-        <v>2977</v>
+        <v>2193</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>665</v>
+        <v>790</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>142</v>
@@ -43284,10 +43329,10 @@
     </row>
     <row r="209" spans="1:4" ht="15.01" customHeight="1">
       <c r="A209" s="3" t="s">
-        <v>2348</v>
+        <v>2193</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>665</v>
+        <v>858</v>
       </c>
       <c r="C209" s="3" t="s">
         <v>142</v>
@@ -43298,10 +43343,10 @@
     </row>
     <row r="210" spans="1:4" ht="15.01" customHeight="1">
       <c r="A210" s="3" t="s">
-        <v>2248</v>
+        <v>2193</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>665</v>
+        <v>614</v>
       </c>
       <c r="C210" s="3" t="s">
         <v>142</v>
@@ -43312,10 +43357,10 @@
     </row>
     <row r="211" spans="1:4" ht="15.01" customHeight="1">
       <c r="A211" s="3" t="s">
-        <v>1511</v>
+        <v>2193</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>665</v>
+        <v>444</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>142</v>
@@ -43326,10 +43371,10 @@
     </row>
     <row r="212" spans="1:4" ht="15.01" customHeight="1">
       <c r="A212" s="3" t="s">
-        <v>1511</v>
+        <v>2692</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>444</v>
+        <v>930</v>
       </c>
       <c r="C212" s="3" t="s">
         <v>142</v>
@@ -43340,10 +43385,10 @@
     </row>
     <row r="213" spans="1:4" ht="15.01" customHeight="1">
       <c r="A213" s="3" t="s">
-        <v>1511</v>
+        <v>2357</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>464</v>
+        <v>930</v>
       </c>
       <c r="C213" s="3" t="s">
         <v>142</v>
@@ -43354,10 +43399,10 @@
     </row>
     <row r="214" spans="1:4" ht="15.01" customHeight="1">
       <c r="A214" s="3" t="s">
-        <v>2644</v>
+        <v>1457</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>439</v>
+        <v>930</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>142</v>
@@ -43368,10 +43413,10 @@
     </row>
     <row r="215" spans="1:4" ht="15.01" customHeight="1">
       <c r="A215" s="3" t="s">
-        <v>2248</v>
+        <v>2366</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>439</v>
+        <v>930</v>
       </c>
       <c r="C215" s="3" t="s">
         <v>142</v>
@@ -43382,10 +43427,10 @@
     </row>
     <row r="216" spans="1:4" ht="15.01" customHeight="1">
       <c r="A216" s="3" t="s">
-        <v>2963</v>
+        <v>2692</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>439</v>
+        <v>614</v>
       </c>
       <c r="C216" s="3" t="s">
         <v>142</v>
@@ -43396,10 +43441,10 @@
     </row>
     <row r="217" spans="1:4" ht="15.01" customHeight="1">
       <c r="A217" s="3" t="s">
-        <v>2963</v>
+        <v>2692</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>503</v>
+        <v>674</v>
       </c>
       <c r="C217" s="3" t="s">
         <v>142</v>
@@ -43410,10 +43455,10 @@
     </row>
     <row r="218" spans="1:4" ht="15.01" customHeight="1">
       <c r="A218" s="3" t="s">
-        <v>2963</v>
+        <v>2114</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>858</v>
+        <v>732</v>
       </c>
       <c r="C218" s="3" t="s">
         <v>142</v>
@@ -43424,27 +43469,27 @@
     </row>
     <row r="219" spans="1:4" ht="15.01" customHeight="1">
       <c r="A219" s="3" t="s">
-        <v>2963</v>
+        <v>2114</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>506</v>
+        <v>738</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>3218</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="220" spans="1:4" ht="15.01" customHeight="1">
       <c r="A220" s="3" t="s">
-        <v>2963</v>
+        <v>2105</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>464</v>
+        <v>738</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D220" s="3" t="s">
         <v>3218</v>
@@ -43452,41 +43497,41 @@
     </row>
     <row r="221" spans="1:4" ht="15.01" customHeight="1">
       <c r="A221" s="3" t="s">
-        <v>2963</v>
+        <v>2892</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>614</v>
+        <v>738</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D221" s="3" t="s">
-        <v>3218</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="15.01" customHeight="1">
       <c r="A222" s="3" t="s">
-        <v>2692</v>
+        <v>2230</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>858</v>
+        <v>738</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>3218</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="223" spans="1:4" ht="15.01" customHeight="1">
       <c r="A223" s="3" t="s">
-        <v>2692</v>
+        <v>2248</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D223" s="3" t="s">
         <v>3218</v>
@@ -43494,10 +43539,10 @@
     </row>
     <row r="224" spans="1:4" ht="15.01" customHeight="1">
       <c r="A224" s="3" t="s">
-        <v>2248</v>
+        <v>2105</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>614</v>
+        <v>501</v>
       </c>
       <c r="C224" s="3" t="s">
         <v>142</v>
@@ -43508,10 +43553,10 @@
     </row>
     <row r="225" spans="1:4" ht="15.01" customHeight="1">
       <c r="A225" s="3" t="s">
-        <v>2644</v>
+        <v>2105</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>614</v>
+        <v>735</v>
       </c>
       <c r="C225" s="3" t="s">
         <v>142</v>
@@ -43522,10 +43567,10 @@
     </row>
     <row r="226" spans="1:4" ht="15.01" customHeight="1">
       <c r="A226" s="3" t="s">
-        <v>2193</v>
+        <v>2473</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>858</v>
+        <v>732</v>
       </c>
       <c r="C226" s="3" t="s">
         <v>142</v>
@@ -43536,10 +43581,10 @@
     </row>
     <row r="227" spans="1:4" ht="15.01" customHeight="1">
       <c r="A227" s="3" t="s">
-        <v>2193</v>
+        <v>2473</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>790</v>
+        <v>735</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>142</v>
@@ -43550,10 +43595,10 @@
     </row>
     <row r="228" spans="1:4" ht="15.01" customHeight="1">
       <c r="A228" s="3" t="s">
-        <v>2248</v>
+        <v>2473</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>444</v>
+        <v>503</v>
       </c>
       <c r="C228" s="3" t="s">
         <v>142</v>
@@ -43564,10 +43609,10 @@
     </row>
     <row r="229" spans="1:4" ht="15.01" customHeight="1">
       <c r="A229" s="3" t="s">
-        <v>2239</v>
+        <v>1157</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>444</v>
+        <v>464</v>
       </c>
       <c r="C229" s="3" t="s">
         <v>142</v>
@@ -43578,10 +43623,10 @@
     </row>
     <row r="230" spans="1:4" ht="15.01" customHeight="1">
       <c r="A230" s="3" t="s">
-        <v>2239</v>
+        <v>1157</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>418</v>
+        <v>450</v>
       </c>
       <c r="C230" s="3" t="s">
         <v>142</v>
@@ -43592,94 +43637,94 @@
     </row>
     <row r="231" spans="1:4" ht="15.01" customHeight="1">
       <c r="A231" s="3" t="s">
-        <v>2230</v>
+        <v>2963</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>444</v>
+        <v>464</v>
       </c>
       <c r="C231" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>3219</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="15.01" customHeight="1">
       <c r="A232" s="3" t="s">
-        <v>2222</v>
+        <v>2810</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>444</v>
+        <v>464</v>
       </c>
       <c r="C232" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>3219</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="15.01" customHeight="1">
       <c r="A233" s="3" t="s">
-        <v>2222</v>
+        <v>2810</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>464</v>
+        <v>796</v>
       </c>
       <c r="C233" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>3219</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="15.01" customHeight="1">
       <c r="A234" s="3" t="s">
-        <v>1267</v>
+        <v>2357</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>444</v>
+        <v>464</v>
       </c>
       <c r="C234" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>3218</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="15.01" customHeight="1">
       <c r="A235" s="3" t="s">
-        <v>2054</v>
+        <v>2248</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>784</v>
+        <v>464</v>
       </c>
       <c r="C235" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>3219</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="15.01" customHeight="1">
       <c r="A236" s="3" t="s">
-        <v>2054</v>
+        <v>2230</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>418</v>
+        <v>444</v>
       </c>
       <c r="C236" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>3220</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="15.01" customHeight="1">
       <c r="A237" s="3" t="s">
-        <v>1225</v>
+        <v>2248</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>796</v>
+        <v>444</v>
       </c>
       <c r="C237" s="3" t="s">
         <v>142</v>
@@ -43690,24 +43735,24 @@
     </row>
     <row r="238" spans="1:4" ht="15.01" customHeight="1">
       <c r="A238" s="3" t="s">
-        <v>1225</v>
+        <v>2928</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>778</v>
+        <v>444</v>
       </c>
       <c r="C238" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>3218</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="239" spans="1:4" ht="15.01" customHeight="1">
       <c r="A239" s="3" t="s">
-        <v>2644</v>
+        <v>1443</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>778</v>
+        <v>741</v>
       </c>
       <c r="C239" s="3" t="s">
         <v>142</v>
@@ -43718,24 +43763,24 @@
     </row>
     <row r="240" spans="1:4" ht="15.01" customHeight="1">
       <c r="A240" s="3" t="s">
-        <v>1249</v>
+        <v>2611</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>778</v>
+        <v>741</v>
       </c>
       <c r="C240" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>3218</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="241" spans="1:4" ht="15.01" customHeight="1">
       <c r="A241" s="3" t="s">
-        <v>1297</v>
+        <v>1427</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>778</v>
+        <v>459</v>
       </c>
       <c r="C241" s="3" t="s">
         <v>142</v>
@@ -43746,10 +43791,10 @@
     </row>
     <row r="242" spans="1:4" ht="15.01" customHeight="1">
       <c r="A242" s="3" t="s">
-        <v>1297</v>
+        <v>1427</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="C242" s="3" t="s">
         <v>142</v>
@@ -43760,10 +43805,10 @@
     </row>
     <row r="243" spans="1:4" ht="15.01" customHeight="1">
       <c r="A243" s="3" t="s">
-        <v>1157</v>
+        <v>1436</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="C243" s="3" t="s">
         <v>142</v>
@@ -43774,10 +43819,10 @@
     </row>
     <row r="244" spans="1:4" ht="15.01" customHeight="1">
       <c r="A244" s="3" t="s">
-        <v>1157</v>
+        <v>1436</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>464</v>
+        <v>599</v>
       </c>
       <c r="C244" s="3" t="s">
         <v>142</v>
@@ -43788,10 +43833,10 @@
     </row>
     <row r="245" spans="1:4" ht="15.01" customHeight="1">
       <c r="A245" s="3" t="s">
-        <v>1166</v>
+        <v>2248</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="C245" s="3" t="s">
         <v>142</v>
@@ -43802,10 +43847,10 @@
     </row>
     <row r="246" spans="1:4" ht="15.01" customHeight="1">
       <c r="A246" s="3" t="s">
-        <v>1166</v>
+        <v>2644</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>498</v>
+        <v>456</v>
       </c>
       <c r="C246" s="3" t="s">
         <v>142</v>
@@ -43816,10 +43861,10 @@
     </row>
     <row r="247" spans="1:4" ht="15.01" customHeight="1">
       <c r="A247" s="3" t="s">
-        <v>1166</v>
+        <v>2248</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>397</v>
+        <v>459</v>
       </c>
       <c r="C247" s="3" t="s">
         <v>142</v>
@@ -43830,10 +43875,10 @@
     </row>
     <row r="248" spans="1:4" ht="15.01" customHeight="1">
       <c r="A248" s="3" t="s">
-        <v>1166</v>
+        <v>1457</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>503</v>
+        <v>708</v>
       </c>
       <c r="C248" s="3" t="s">
         <v>142</v>
@@ -43844,10 +43889,10 @@
     </row>
     <row r="249" spans="1:4" ht="15.01" customHeight="1">
       <c r="A249" s="3" t="s">
-        <v>1225</v>
+        <v>2248</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="C249" s="3" t="s">
         <v>142</v>
@@ -43858,10 +43903,10 @@
     </row>
     <row r="250" spans="1:4" ht="15.01" customHeight="1">
       <c r="A250" s="3" t="s">
-        <v>1225</v>
+        <v>2248</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>376</v>
+        <v>608</v>
       </c>
       <c r="C250" s="3" t="s">
         <v>142</v>
@@ -43872,10 +43917,10 @@
     </row>
     <row r="251" spans="1:4" ht="15.01" customHeight="1">
       <c r="A251" s="3" t="s">
-        <v>2420</v>
+        <v>1457</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>796</v>
+        <v>608</v>
       </c>
       <c r="C251" s="3" t="s">
         <v>142</v>
@@ -43886,24 +43931,24 @@
     </row>
     <row r="252" spans="1:4" ht="15.01" customHeight="1">
       <c r="A252" s="3" t="s">
-        <v>2230</v>
+        <v>2837</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>796</v>
+        <v>608</v>
       </c>
       <c r="C252" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D252" s="3" t="s">
-        <v>3220</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="253" spans="1:4" ht="15.01" customHeight="1">
       <c r="A253" s="3" t="s">
-        <v>1069</v>
+        <v>2230</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>796</v>
+        <v>608</v>
       </c>
       <c r="C253" s="3" t="s">
         <v>142</v>
@@ -43914,10 +43959,10 @@
     </row>
     <row r="254" spans="1:4" ht="15.01" customHeight="1">
       <c r="A254" s="3" t="s">
-        <v>1069</v>
+        <v>1615</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>385</v>
+        <v>608</v>
       </c>
       <c r="C254" s="3" t="s">
         <v>142</v>
@@ -43928,7 +43973,7 @@
     </row>
     <row r="255" spans="1:4" ht="15.01" customHeight="1">
       <c r="A255" s="3" t="s">
-        <v>2366</v>
+        <v>1615</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>705</v>
@@ -43942,10 +43987,10 @@
     </row>
     <row r="256" spans="1:4" ht="15.01" customHeight="1">
       <c r="A256" s="3" t="s">
-        <v>1457</v>
+        <v>1615</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>705</v>
+        <v>506</v>
       </c>
       <c r="C256" s="3" t="s">
         <v>142</v>
@@ -43956,7 +44001,7 @@
     </row>
     <row r="257" spans="1:4" ht="15.01" customHeight="1">
       <c r="A257" s="3" t="s">
-        <v>2366</v>
+        <v>2248</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>506</v>
@@ -43970,10 +44015,10 @@
     </row>
     <row r="258" spans="1:4" ht="15.01" customHeight="1">
       <c r="A258" s="3" t="s">
-        <v>2357</v>
+        <v>2248</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>674</v>
+        <v>858</v>
       </c>
       <c r="C258" s="3" t="s">
         <v>142</v>
@@ -43984,10 +44029,10 @@
     </row>
     <row r="259" spans="1:4" ht="15.01" customHeight="1">
       <c r="A259" s="3" t="s">
-        <v>2357</v>
+        <v>2248</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>858</v>
+        <v>674</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>142</v>
@@ -43998,80 +44043,80 @@
     </row>
     <row r="260" spans="1:4" ht="15.01" customHeight="1">
       <c r="A260" s="3" t="s">
-        <v>2892</v>
+        <v>2357</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>464</v>
+        <v>735</v>
       </c>
       <c r="C260" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>3220</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="261" spans="1:4" ht="15.01" customHeight="1">
       <c r="A261" s="3" t="s">
-        <v>2911</v>
+        <v>2420</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>464</v>
+        <v>796</v>
       </c>
       <c r="C261" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>3220</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="262" spans="1:4" ht="15.01" customHeight="1">
       <c r="A262" s="3" t="s">
-        <v>2911</v>
+        <v>1225</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>881</v>
+        <v>796</v>
       </c>
       <c r="C262" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D262" s="3" t="s">
-        <v>3220</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="263" spans="1:4" ht="15.01" customHeight="1">
       <c r="A263" s="3" t="s">
-        <v>2905</v>
+        <v>1225</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>881</v>
+        <v>376</v>
       </c>
       <c r="C263" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>3220</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="264" spans="1:4" ht="15.01" customHeight="1">
       <c r="A264" s="3" t="s">
-        <v>2905</v>
+        <v>1225</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>464</v>
+        <v>625</v>
       </c>
       <c r="C264" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>3220</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="265" spans="1:4" ht="15.01" customHeight="1">
       <c r="A265" s="3" t="s">
-        <v>2745</v>
+        <v>1225</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>464</v>
+        <v>778</v>
       </c>
       <c r="C265" s="3" t="s">
         <v>142</v>
@@ -44082,38 +44127,38 @@
     </row>
     <row r="266" spans="1:4" ht="15.01" customHeight="1">
       <c r="A266" s="3" t="s">
-        <v>2516</v>
+        <v>3061</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>464</v>
+        <v>796</v>
       </c>
       <c r="C266" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D266" s="3" t="s">
-        <v>3220</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="267" spans="1:4" ht="15.01" customHeight="1">
       <c r="A267" s="3" t="s">
-        <v>2230</v>
+        <v>2644</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>464</v>
+        <v>796</v>
       </c>
       <c r="C267" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>3220</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="268" spans="1:4" ht="15.01" customHeight="1">
       <c r="A268" s="3" t="s">
-        <v>3097</v>
+        <v>2725</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>418</v>
+        <v>385</v>
       </c>
       <c r="C268" s="3" t="s">
         <v>142</v>
@@ -44124,38 +44169,38 @@
     </row>
     <row r="269" spans="1:4" ht="15.01" customHeight="1">
       <c r="A269" s="3" t="s">
-        <v>2892</v>
+        <v>2725</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>738</v>
+        <v>575</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>3220</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="270" spans="1:4" ht="15.01" customHeight="1">
       <c r="A270" s="3" t="s">
-        <v>2892</v>
+        <v>2725</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>732</v>
+        <v>506</v>
       </c>
       <c r="C270" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>3220</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="271" spans="1:4" ht="15.01" customHeight="1">
       <c r="A271" s="3" t="s">
-        <v>2248</v>
+        <v>2725</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>418</v>
+        <v>503</v>
       </c>
       <c r="C271" s="3" t="s">
         <v>142</v>
@@ -44166,41 +44211,41 @@
     </row>
     <row r="272" spans="1:4" ht="15.01" customHeight="1">
       <c r="A272" s="3" t="s">
-        <v>2230</v>
+        <v>1216</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>732</v>
+        <v>406</v>
       </c>
       <c r="C272" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D272" s="3" t="s">
-        <v>3220</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="273" spans="1:4" ht="15.01" customHeight="1">
       <c r="A273" s="3" t="s">
-        <v>2230</v>
+        <v>1145</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>735</v>
+        <v>406</v>
       </c>
       <c r="C273" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>3220</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="274" spans="1:4" ht="15.01" customHeight="1">
       <c r="A274" s="3" t="s">
-        <v>2105</v>
+        <v>1697</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>738</v>
+        <v>406</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D274" s="3" t="s">
         <v>3218</v>
@@ -44208,10 +44253,10 @@
     </row>
     <row r="275" spans="1:4" ht="15.01" customHeight="1">
       <c r="A275" s="3" t="s">
-        <v>2105</v>
+        <v>1697</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>735</v>
+        <v>799</v>
       </c>
       <c r="C275" s="3" t="s">
         <v>142</v>
@@ -44222,10 +44267,10 @@
     </row>
     <row r="276" spans="1:4" ht="15.01" customHeight="1">
       <c r="A276" s="3" t="s">
-        <v>2105</v>
+        <v>1705</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>501</v>
+        <v>799</v>
       </c>
       <c r="C276" s="3" t="s">
         <v>142</v>
@@ -44236,10 +44281,10 @@
     </row>
     <row r="277" spans="1:4" ht="15.01" customHeight="1">
       <c r="A277" s="3" t="s">
-        <v>2248</v>
+        <v>2963</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>735</v>
+        <v>503</v>
       </c>
       <c r="C277" s="3" t="s">
         <v>142</v>
@@ -44250,10 +44295,10 @@
     </row>
     <row r="278" spans="1:4" ht="15.01" customHeight="1">
       <c r="A278" s="3" t="s">
-        <v>1035</v>
+        <v>2261</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>735</v>
+        <v>503</v>
       </c>
       <c r="C278" s="3" t="s">
         <v>142</v>
@@ -44264,10 +44309,10 @@
     </row>
     <row r="279" spans="1:4" ht="15.01" customHeight="1">
       <c r="A279" s="3" t="s">
-        <v>2568</v>
+        <v>2261</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="C279" s="3" t="s">
         <v>142</v>
@@ -44278,10 +44323,10 @@
     </row>
     <row r="280" spans="1:4" ht="15.01" customHeight="1">
       <c r="A280" s="3" t="s">
-        <v>2568</v>
+        <v>1166</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="C280" s="3" t="s">
         <v>142</v>
@@ -44292,10 +44337,10 @@
     </row>
     <row r="281" spans="1:4" ht="15.01" customHeight="1">
       <c r="A281" s="3" t="s">
-        <v>1216</v>
+        <v>1166</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="C281" s="3" t="s">
         <v>142</v>
@@ -44306,10 +44351,10 @@
     </row>
     <row r="282" spans="1:4" ht="15.01" customHeight="1">
       <c r="A282" s="3" t="s">
-        <v>1216</v>
+        <v>1249</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>406</v>
+        <v>778</v>
       </c>
       <c r="C282" s="3" t="s">
         <v>142</v>
@@ -44320,10 +44365,10 @@
     </row>
     <row r="283" spans="1:4" ht="15.01" customHeight="1">
       <c r="A283" s="3" t="s">
-        <v>1697</v>
+        <v>2644</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>406</v>
+        <v>688</v>
       </c>
       <c r="C283" s="3" t="s">
         <v>142</v>
@@ -44334,10 +44379,10 @@
     </row>
     <row r="284" spans="1:4" ht="15.01" customHeight="1">
       <c r="A284" s="3" t="s">
-        <v>1697</v>
+        <v>2366</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>799</v>
+        <v>688</v>
       </c>
       <c r="C284" s="3" t="s">
         <v>142</v>
@@ -44348,10 +44393,10 @@
     </row>
     <row r="285" spans="1:4" ht="15.01" customHeight="1">
       <c r="A285" s="3" t="s">
-        <v>1705</v>
+        <v>2644</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>799</v>
+        <v>956</v>
       </c>
       <c r="C285" s="3" t="s">
         <v>142</v>
@@ -44362,10 +44407,10 @@
     </row>
     <row r="286" spans="1:4" ht="15.01" customHeight="1">
       <c r="A286" s="3" t="s">
-        <v>1145</v>
+        <v>2366</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>406</v>
+        <v>956</v>
       </c>
       <c r="C286" s="3" t="s">
         <v>142</v>
@@ -44376,10 +44421,10 @@
     </row>
     <row r="287" spans="1:4" ht="15.01" customHeight="1">
       <c r="A287" s="3" t="s">
-        <v>1216</v>
+        <v>2644</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>385</v>
+        <v>858</v>
       </c>
       <c r="C287" s="3" t="s">
         <v>142</v>
@@ -44390,10 +44435,10 @@
     </row>
     <row r="288" spans="1:4" ht="15.01" customHeight="1">
       <c r="A288" s="3" t="s">
-        <v>2725</v>
+        <v>2644</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>575</v>
+        <v>705</v>
       </c>
       <c r="C288" s="3" t="s">
         <v>142</v>
@@ -44404,10 +44449,10 @@
     </row>
     <row r="289" spans="1:4" ht="15.01" customHeight="1">
       <c r="A289" s="3" t="s">
-        <v>2248</v>
+        <v>2963</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>708</v>
+        <v>858</v>
       </c>
       <c r="C289" s="3" t="s">
         <v>142</v>
@@ -44418,10 +44463,10 @@
     </row>
     <row r="290" spans="1:4" ht="15.01" customHeight="1">
       <c r="A290" s="3" t="s">
-        <v>1457</v>
+        <v>1420</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>674</v>
+        <v>506</v>
       </c>
       <c r="C290" s="3" t="s">
         <v>142</v>
@@ -44432,10 +44477,10 @@
     </row>
     <row r="291" spans="1:4" ht="15.01" customHeight="1">
       <c r="A291" s="3" t="s">
-        <v>2366</v>
+        <v>2357</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>645</v>
+        <v>506</v>
       </c>
       <c r="C291" s="3" t="s">
         <v>142</v>
@@ -44449,7 +44494,7 @@
         <v>2366</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>462</v>
+        <v>858</v>
       </c>
       <c r="C292" s="3" t="s">
         <v>142</v>
@@ -44460,10 +44505,10 @@
     </row>
     <row r="293" spans="1:4" ht="15.01" customHeight="1">
       <c r="A293" s="3" t="s">
-        <v>2887</v>
+        <v>1397</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>858</v>
+        <v>705</v>
       </c>
       <c r="C293" s="3" t="s">
         <v>142</v>
@@ -44474,10 +44519,10 @@
     </row>
     <row r="294" spans="1:4" ht="15.01" customHeight="1">
       <c r="A294" s="3" t="s">
-        <v>2168</v>
+        <v>1397</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>335</v>
+        <v>424</v>
       </c>
       <c r="C294" s="3" t="s">
         <v>142</v>
